--- a/Prácticas/Set_test1.xlsx
+++ b/Prácticas/Set_test1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Beam</t>
   </si>
@@ -66,6 +66,9 @@
     <t>E50001Tb</t>
   </si>
   <si>
+    <t>E40001Ta</t>
+  </si>
+  <si>
     <t>E99002ZZb</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
   </si>
   <si>
     <t>E50001Tc</t>
+  </si>
+  <si>
+    <t>E40001Ta</t>
   </si>
   <si>
     <t>E99002ZZc</t>
@@ -202,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="true"/>
@@ -224,7 +230,7 @@
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="12.5703125" customWidth="true"/>
     <col min="19" max="19" width="12.5703125" customWidth="true"/>
-    <col min="20" max="20" width="12.5703125" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,61 +238,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -695,33 +701,15 @@
       <c r="K8" s="0">
         <v>2886</v>
       </c>
-      <c r="L8" s="0">
-        <v>3.7445530448171143</v>
-      </c>
-      <c r="M8" s="0">
-        <v>3.5541745103790356</v>
-      </c>
-      <c r="N8" s="0">
-        <v>3.1261778840791834</v>
-      </c>
-      <c r="O8" s="0">
-        <v>3.7438342152317081</v>
-      </c>
-      <c r="P8" s="0">
-        <v>3.5402768708176939</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>3.1064674691206609</v>
-      </c>
-      <c r="R8" s="0">
-        <v>1.9948305629456997</v>
-      </c>
-      <c r="S8" s="0">
-        <v>2.1115804897361206</v>
-      </c>
-      <c r="T8" s="0">
-        <v>2.2561330042675314</v>
-      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -1286,62 +1274,38 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>0.014</v>
-      </c>
-      <c r="C18" s="0">
-        <v>0.16950000000000001</v>
-      </c>
-      <c r="D18" s="0">
-        <v>0.020799999999999999</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0.0044000000000000003</v>
-      </c>
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
       <c r="F18" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G18" s="0">
-        <v>1133</v>
+        <v>1162</v>
       </c>
       <c r="H18" s="0">
-        <v>3023</v>
+        <v>2966</v>
       </c>
       <c r="I18" s="0">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J18" s="0">
-        <v>1058</v>
+        <v>1099</v>
       </c>
       <c r="K18" s="0">
-        <v>2941</v>
-      </c>
-      <c r="L18" s="0">
-        <v>2.6321610176995502</v>
-      </c>
-      <c r="M18" s="0">
-        <v>2.6266291835503415</v>
-      </c>
-      <c r="N18" s="0">
-        <v>2.5887800234197851</v>
-      </c>
-      <c r="O18" s="0">
-        <v>2.6316557303687445</v>
-      </c>
-      <c r="P18" s="0">
-        <v>2.616358459491158</v>
-      </c>
-      <c r="Q18" s="0">
-        <v>2.5724578784907339</v>
-      </c>
-      <c r="R18" s="0">
-        <v>1.413285685930292</v>
-      </c>
-      <c r="S18" s="0">
-        <v>1.6008080922253787</v>
-      </c>
-      <c r="T18" s="0">
-        <v>1.868885809785114</v>
-      </c>
+        <v>2886</v>
+      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
@@ -1360,49 +1324,49 @@
         <v>0.0041999999999999997</v>
       </c>
       <c r="F19" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G19" s="0">
-        <v>1086</v>
+        <v>1133</v>
       </c>
       <c r="H19" s="0">
-        <v>2097</v>
+        <v>3023</v>
       </c>
       <c r="I19" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="J19" s="0">
-        <v>1015</v>
+        <v>1058</v>
       </c>
       <c r="K19" s="0">
-        <v>2817</v>
+        <v>2941</v>
       </c>
       <c r="L19" s="0">
-        <v>3.2483302653884341</v>
+        <v>3.5791659546220846</v>
       </c>
       <c r="M19" s="0">
-        <v>3.287220957865407</v>
+        <v>3.5716438644762589</v>
       </c>
       <c r="N19" s="0">
-        <v>3.2295958356637642</v>
+        <v>3.5201772465758374</v>
       </c>
       <c r="O19" s="0">
-        <v>3.2477066940649717</v>
+        <v>3.5784788738547757</v>
       </c>
       <c r="P19" s="0">
-        <v>3.2743671680761062</v>
+        <v>3.5576779157235974</v>
       </c>
       <c r="Q19" s="0">
-        <v>3.2092333750394237</v>
+        <v>3.4979826828528613</v>
       </c>
       <c r="R19" s="0">
-        <v>1.7688479359714004</v>
+        <v>1.9217608562782134</v>
       </c>
       <c r="S19" s="0">
-        <v>1.9999009403156098</v>
+        <v>2.1767505046420412</v>
       </c>
       <c r="T19" s="0">
-        <v>1.2228486708915509</v>
+        <v>2.5412778391898252</v>
       </c>
     </row>
     <row r="20">
@@ -1422,49 +1386,49 @@
         <v>0.0043</v>
       </c>
       <c r="F20" s="0">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G20" s="0">
-        <v>1138</v>
+        <v>1086</v>
       </c>
       <c r="H20" s="0">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="I20" s="0">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J20" s="0">
-        <v>1071</v>
+        <v>1015</v>
       </c>
       <c r="K20" s="0">
-        <v>2891</v>
+        <v>2817</v>
       </c>
       <c r="L20" s="0">
-        <v>3.3644109805384006</v>
+        <v>2.9824184202501929</v>
       </c>
       <c r="M20" s="0">
-        <v>3.3603471735295707</v>
+        <v>3.0181254783826397</v>
       </c>
       <c r="N20" s="0">
-        <v>3.1230508837382782</v>
+        <v>2.9652176112994888</v>
       </c>
       <c r="O20" s="0">
-        <v>3.3637651255801906</v>
+        <v>2.9818458951528375</v>
       </c>
       <c r="P20" s="0">
-        <v>3.3472074434228154</v>
+        <v>3.0063239137923312</v>
       </c>
       <c r="Q20" s="0">
-        <v>3.1033601843802687</v>
+        <v>2.9465220438275677</v>
       </c>
       <c r="R20" s="0">
-        <v>1.7824020204233466</v>
+        <v>1.624048121914661</v>
       </c>
       <c r="S20" s="0">
-        <v>2.0162378005204915</v>
+        <v>1.8361868762626326</v>
       </c>
       <c r="T20" s="0">
-        <v>1.1291790052660895</v>
+        <v>1.1227449499533309</v>
       </c>
     </row>
     <row r="21">
@@ -1472,61 +1436,61 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="C21" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.16950000000000001</v>
       </c>
       <c r="D21" s="0">
-        <v>0.020899999999999998</v>
+        <v>0.020799999999999999</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0041999999999999997</v>
+        <v>0.0044000000000000003</v>
       </c>
       <c r="F21" s="0">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G21" s="0">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="H21" s="0">
-        <v>3053</v>
+        <v>2103</v>
       </c>
       <c r="I21" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J21" s="0">
-        <v>979</v>
+        <v>1071</v>
       </c>
       <c r="K21" s="0">
-        <v>2974</v>
+        <v>2891</v>
       </c>
       <c r="L21" s="0">
-        <v>3.391007861460035</v>
+        <v>2.6948293238525451</v>
       </c>
       <c r="M21" s="0">
-        <v>2.9672191559020087</v>
+        <v>2.6915742915876937</v>
       </c>
       <c r="N21" s="0">
-        <v>3.492559701479574</v>
+        <v>2.5015044684091197</v>
       </c>
       <c r="O21" s="0">
-        <v>3.3903569007856933</v>
+        <v>2.6943120062922326</v>
       </c>
       <c r="P21" s="0">
-        <v>2.9556166467376972</v>
+        <v>2.6810496172229925</v>
       </c>
       <c r="Q21" s="0">
-        <v>3.4705392651716598</v>
+        <v>2.4857325920408422</v>
       </c>
       <c r="R21" s="0">
-        <v>1.7527543480341243</v>
+        <v>1.4276701804017413</v>
       </c>
       <c r="S21" s="0">
-        <v>2.2062431823743616</v>
+        <v>1.6149682010112449</v>
       </c>
       <c r="T21" s="0">
-        <v>2.5148778241742251</v>
+        <v>0.90445094635339374</v>
       </c>
     </row>
     <row r="22">
@@ -1537,58 +1501,58 @@
         <v>0.016</v>
       </c>
       <c r="C22" s="0">
-        <v>0.16950000000000001</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D22" s="0">
-        <v>0.0207</v>
+        <v>0.020899999999999998</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0043</v>
+        <v>0.0041999999999999997</v>
       </c>
       <c r="F22" s="0">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G22" s="0">
-        <v>1153</v>
+        <v>1158</v>
       </c>
       <c r="H22" s="0">
-        <v>3092</v>
+        <v>3053</v>
       </c>
       <c r="I22" s="0">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J22" s="0">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="K22" s="0">
-        <v>2661</v>
+        <v>2974</v>
       </c>
       <c r="L22" s="0">
-        <v>3.3156514011103084</v>
+        <v>3.391007861460035</v>
       </c>
       <c r="M22" s="0">
-        <v>2.8296675748356943</v>
+        <v>2.9672191559020087</v>
       </c>
       <c r="N22" s="0">
-        <v>2.6075488180742368</v>
+        <v>3.492559701479574</v>
       </c>
       <c r="O22" s="0">
-        <v>3.3150149063688836</v>
+        <v>3.3903569007856933</v>
       </c>
       <c r="P22" s="0">
-        <v>2.8186029239811452</v>
+        <v>2.9556166467376972</v>
       </c>
       <c r="Q22" s="0">
-        <v>2.591108336715005</v>
+        <v>3.4705392651716598</v>
       </c>
       <c r="R22" s="0">
-        <v>1.7037439629084905</v>
+        <v>1.7527543480341243</v>
       </c>
       <c r="S22" s="0">
-        <v>2.0397440037104886</v>
+        <v>2.2062431823743616</v>
       </c>
       <c r="T22" s="0">
-        <v>2.4055979325003189</v>
+        <v>2.5148778241742251</v>
       </c>
     </row>
     <row r="23">
@@ -1602,55 +1566,55 @@
         <v>0.16950000000000001</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0201</v>
+        <v>0.0207</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0041999999999999997</v>
+        <v>0.0043</v>
       </c>
       <c r="F23" s="0">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G23" s="0">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="H23" s="0">
-        <v>3083</v>
+        <v>3092</v>
       </c>
       <c r="I23" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J23" s="0">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="K23" s="0">
-        <v>3005</v>
+        <v>2661</v>
       </c>
       <c r="L23" s="0">
-        <v>3.5791659546220846</v>
+        <v>3.3156514011103084</v>
       </c>
       <c r="M23" s="0">
-        <v>3.0769453886021023</v>
+        <v>2.8296675748356943</v>
       </c>
       <c r="N23" s="0">
-        <v>3.6750515482964796</v>
+        <v>2.6075488180742368</v>
       </c>
       <c r="O23" s="0">
-        <v>3.5784788738547757</v>
+        <v>3.3150149063688836</v>
       </c>
       <c r="P23" s="0">
-        <v>3.0649138246381353</v>
+        <v>2.8186029239811452</v>
       </c>
       <c r="Q23" s="0">
-        <v>3.6518805088684982</v>
+        <v>2.591108336715005</v>
       </c>
       <c r="R23" s="0">
-        <v>1.9807373096737488</v>
+        <v>1.7037439629084905</v>
       </c>
       <c r="S23" s="0">
-        <v>2.2386638765144267</v>
+        <v>2.0397440037104886</v>
       </c>
       <c r="T23" s="0">
-        <v>2.6431566589829876</v>
+        <v>2.4055979325003189</v>
       </c>
     </row>
     <row r="24">
@@ -1658,61 +1622,61 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>0.014999999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="C24" s="0">
         <v>0.16950000000000001</v>
       </c>
       <c r="D24" s="0">
-        <v>0.020400000000000001</v>
+        <v>0.0201</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0041000000000000003</v>
+        <v>0.0041999999999999997</v>
       </c>
       <c r="F24" s="0">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G24" s="0">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="H24" s="0">
-        <v>3042</v>
+        <v>3083</v>
       </c>
       <c r="I24" s="0">
         <v>169</v>
       </c>
       <c r="J24" s="0">
-        <v>1054</v>
+        <v>982</v>
       </c>
       <c r="K24" s="0">
-        <v>2865</v>
+        <v>3005</v>
       </c>
       <c r="L24" s="0">
-        <v>3.5539826486424664</v>
+        <v>3.5791659546220846</v>
       </c>
       <c r="M24" s="0">
-        <v>3.5197474406831608</v>
+        <v>3.0769453886021023</v>
       </c>
       <c r="N24" s="0">
-        <v>3.3170895984298423</v>
+        <v>3.6750515482964796</v>
       </c>
       <c r="O24" s="0">
-        <v>3.5533004022319363</v>
+        <v>3.5784788738547757</v>
       </c>
       <c r="P24" s="0">
-        <v>3.5059844188802849</v>
+        <v>3.0649138246381353</v>
       </c>
       <c r="Q24" s="0">
-        <v>3.296175493454363</v>
+        <v>3.6518805088684982</v>
       </c>
       <c r="R24" s="0">
-        <v>1.8696898955526911</v>
+        <v>1.9807373096737488</v>
       </c>
       <c r="S24" s="0">
-        <v>2.2074621964414241</v>
+        <v>2.2386638765144267</v>
       </c>
       <c r="T24" s="0">
-        <v>2.5552167269959227</v>
+        <v>2.6431566589829876</v>
       </c>
     </row>
     <row r="25">
@@ -1720,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>0.014</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="C25" s="0">
         <v>0.16950000000000001</v>
       </c>
       <c r="D25" s="0">
-        <v>0.020299999999999999</v>
+        <v>0.020400000000000001</v>
       </c>
       <c r="E25" s="0">
         <v>0.0041000000000000003</v>
@@ -1735,46 +1699,46 @@
         <v>195</v>
       </c>
       <c r="G25" s="0">
-        <v>1124</v>
+        <v>1145</v>
       </c>
       <c r="H25" s="0">
-        <v>2985</v>
+        <v>3042</v>
       </c>
       <c r="I25" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J25" s="0">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="K25" s="0">
-        <v>2902</v>
+        <v>2865</v>
       </c>
       <c r="L25" s="0">
-        <v>3.2940589237165123</v>
+        <v>3.5539826486424664</v>
       </c>
       <c r="M25" s="0">
-        <v>3.332676095535029</v>
+        <v>3.5197474406831608</v>
       </c>
       <c r="N25" s="0">
-        <v>3.1920793024132044</v>
+        <v>3.3170895984298423</v>
       </c>
       <c r="O25" s="0">
-        <v>3.2934265740122624</v>
+        <v>3.5533004022319363</v>
       </c>
       <c r="P25" s="0">
-        <v>3.3196445657057567</v>
+        <v>3.5059844188802849</v>
       </c>
       <c r="Q25" s="0">
-        <v>3.1719533818916976</v>
+        <v>3.296175493454363</v>
       </c>
       <c r="R25" s="0">
-        <v>1.7536401778976969</v>
+        <v>1.8696898955526911</v>
       </c>
       <c r="S25" s="0">
-        <v>1.9951972158937386</v>
+        <v>2.2074621964414241</v>
       </c>
       <c r="T25" s="0">
-        <v>2.3076444693665867</v>
+        <v>2.5552167269959227</v>
       </c>
     </row>
     <row r="26">
@@ -1794,49 +1758,49 @@
         <v>0.0041000000000000003</v>
       </c>
       <c r="F26" s="0">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="0">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="H26" s="0">
-        <v>3095</v>
+        <v>2985</v>
       </c>
       <c r="I26" s="0">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J26" s="0">
-        <v>1122</v>
+        <v>1059</v>
       </c>
       <c r="K26" s="0">
-        <v>3021</v>
+        <v>2902</v>
       </c>
       <c r="L26" s="0">
-        <v>3.5335504526091666</v>
+        <v>3.2940589237165123</v>
       </c>
       <c r="M26" s="0">
-        <v>3.7409930385370052</v>
+        <v>3.332676095535029</v>
       </c>
       <c r="N26" s="0">
-        <v>3.4592369126825799</v>
+        <v>3.1920793024132044</v>
       </c>
       <c r="O26" s="0">
-        <v>3.532872128500399</v>
+        <v>3.2934265740122624</v>
       </c>
       <c r="P26" s="0">
-        <v>3.726364895574624</v>
+        <v>3.3196445657057567</v>
       </c>
       <c r="Q26" s="0">
-        <v>3.4374265751019681</v>
+        <v>3.1719533818916976</v>
       </c>
       <c r="R26" s="0">
-        <v>1.7897967564505384</v>
+        <v>1.7536401778976969</v>
       </c>
       <c r="S26" s="0">
-        <v>2.1840765257911019</v>
+        <v>1.9951972158937386</v>
       </c>
       <c r="T26" s="0">
-        <v>2.4808558777330854</v>
+        <v>2.3076444693665867</v>
       </c>
     </row>
     <row r="27">
@@ -1844,61 +1808,61 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>0.014999999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="C27" s="0">
         <v>0.16950000000000001</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0206</v>
+        <v>0.020299999999999999</v>
       </c>
       <c r="E27" s="0">
         <v>0.0041000000000000003</v>
       </c>
       <c r="F27" s="0">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G27" s="0">
-        <v>1155</v>
+        <v>1176</v>
       </c>
       <c r="H27" s="0">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="I27" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J27" s="0">
-        <v>986</v>
+        <v>1122</v>
       </c>
       <c r="K27" s="0">
-        <v>2649</v>
+        <v>3021</v>
       </c>
       <c r="L27" s="0">
-        <v>3.4779505626618503</v>
+        <v>3.5335504526091666</v>
       </c>
       <c r="M27" s="0">
-        <v>3.0503316221642391</v>
+        <v>3.7409930385370052</v>
       </c>
       <c r="N27" s="0">
-        <v>2.8082438309803694</v>
+        <v>3.4592369126825799</v>
       </c>
       <c r="O27" s="0">
-        <v>3.4772829118818782</v>
+        <v>3.532872128500399</v>
       </c>
       <c r="P27" s="0">
-        <v>3.0384041241464561</v>
+        <v>3.726364895574624</v>
       </c>
       <c r="Q27" s="0">
-        <v>2.7905379763342779</v>
+        <v>3.4374265751019681</v>
       </c>
       <c r="R27" s="0">
-        <v>1.795005413552593</v>
+        <v>1.7897967564505384</v>
       </c>
       <c r="S27" s="0">
-        <v>2.2243812060191739</v>
+        <v>2.1840765257911019</v>
       </c>
       <c r="T27" s="0">
-        <v>2.6142748199339065</v>
+        <v>2.4808558777330854</v>
       </c>
     </row>
     <row r="28">
@@ -1906,62 +1870,38 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>0.016</v>
-      </c>
-      <c r="C28" s="0">
-        <v>0.16950000000000001</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0.020400000000000001</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0.0044000000000000003</v>
-      </c>
+        <v>0.012999999999999999</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
       <c r="F28" s="0">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="G28" s="0">
-        <v>1123</v>
+        <v>1162</v>
       </c>
       <c r="H28" s="0">
-        <v>2974</v>
+        <v>2966</v>
       </c>
       <c r="I28" s="0">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J28" s="0">
-        <v>1031</v>
+        <v>1099</v>
       </c>
       <c r="K28" s="0">
-        <v>2877</v>
-      </c>
-      <c r="L28" s="0">
-        <v>2.9236948762825903</v>
-      </c>
-      <c r="M28" s="0">
-        <v>2.9064969725844692</v>
-      </c>
-      <c r="N28" s="0">
-        <v>2.886755074733713</v>
-      </c>
-      <c r="O28" s="0">
-        <v>2.9231336241516637</v>
-      </c>
-      <c r="P28" s="0">
-        <v>2.8951319011190275</v>
-      </c>
-      <c r="Q28" s="0">
-        <v>2.8685542101263621</v>
-      </c>
-      <c r="R28" s="0">
-        <v>1.5806555499760588</v>
-      </c>
-      <c r="S28" s="0">
-        <v>1.8325847926744541</v>
-      </c>
-      <c r="T28" s="0">
-        <v>2.1077229046073596</v>
-      </c>
+        <v>2886</v>
+      </c>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
@@ -1974,54 +1914,178 @@
         <v>0.16950000000000001</v>
       </c>
       <c r="D29" s="0">
+        <v>0.0206</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.0041000000000000003</v>
+      </c>
+      <c r="F29" s="0">
+        <v>192</v>
+      </c>
+      <c r="G29" s="0">
+        <v>1155</v>
+      </c>
+      <c r="H29" s="0">
+        <v>3092</v>
+      </c>
+      <c r="I29" s="0">
+        <v>168</v>
+      </c>
+      <c r="J29" s="0">
+        <v>986</v>
+      </c>
+      <c r="K29" s="0">
+        <v>2649</v>
+      </c>
+      <c r="L29" s="0">
+        <v>3.4779505626618503</v>
+      </c>
+      <c r="M29" s="0">
+        <v>3.0503316221642391</v>
+      </c>
+      <c r="N29" s="0">
+        <v>2.8082438309803694</v>
+      </c>
+      <c r="O29" s="0">
+        <v>3.4772829118818782</v>
+      </c>
+      <c r="P29" s="0">
+        <v>3.0384041241464561</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>2.7905379763342779</v>
+      </c>
+      <c r="R29" s="0">
+        <v>1.795005413552593</v>
+      </c>
+      <c r="S29" s="0">
+        <v>2.2243812060191739</v>
+      </c>
+      <c r="T29" s="0">
+        <v>2.6142748199339065</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.016</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="D30" s="0">
         <v>0.020400000000000001</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E30" s="0">
+        <v>0.0044000000000000003</v>
+      </c>
+      <c r="F30" s="0">
+        <v>193</v>
+      </c>
+      <c r="G30" s="0">
+        <v>1123</v>
+      </c>
+      <c r="H30" s="0">
+        <v>2974</v>
+      </c>
+      <c r="I30" s="0">
+        <v>165</v>
+      </c>
+      <c r="J30" s="0">
+        <v>1031</v>
+      </c>
+      <c r="K30" s="0">
+        <v>2877</v>
+      </c>
+      <c r="L30" s="0">
+        <v>2.9236948762825903</v>
+      </c>
+      <c r="M30" s="0">
+        <v>2.9064969725844692</v>
+      </c>
+      <c r="N30" s="0">
+        <v>2.886755074733713</v>
+      </c>
+      <c r="O30" s="0">
+        <v>2.9231336241516637</v>
+      </c>
+      <c r="P30" s="0">
+        <v>2.8951319011190275</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>2.8685542101263621</v>
+      </c>
+      <c r="R30" s="0">
+        <v>1.5806555499760588</v>
+      </c>
+      <c r="S30" s="0">
+        <v>1.8325847926744541</v>
+      </c>
+      <c r="T30" s="0">
+        <v>2.1077229046073596</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.020400000000000001</v>
+      </c>
+      <c r="E31" s="0">
         <v>0.0043</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F31" s="0">
         <v>190</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G31" s="0">
         <v>1103</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H31" s="0">
         <v>3013</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I31" s="0">
         <v>162</v>
       </c>
-      <c r="J29" s="0">
+      <c r="J31" s="0">
         <v>1004</v>
       </c>
-      <c r="K29" s="0">
+      <c r="K31" s="0">
         <v>2707</v>
       </c>
-      <c r="L29" s="0">
+      <c r="L31" s="0">
         <v>2.8308582696358409</v>
       </c>
-      <c r="M29" s="0">
+      <c r="M31" s="0">
         <v>2.7684960556711102</v>
       </c>
-      <c r="N29" s="0">
+      <c r="N31" s="0">
         <v>2.567028348978794</v>
       </c>
-      <c r="O29" s="0">
+      <c r="O31" s="0">
         <v>2.8303148390442727</v>
       </c>
-      <c r="P29" s="0">
+      <c r="P31" s="0">
         <v>2.75767059952191</v>
       </c>
-      <c r="Q29" s="0">
+      <c r="Q31" s="0">
         <v>2.5508433474066377</v>
       </c>
-      <c r="R29" s="0">
+      <c r="R31" s="0">
         <v>1.5386993260560808</v>
       </c>
-      <c r="S29" s="0">
+      <c r="S31" s="0">
         <v>1.7757406222202443</v>
       </c>
-      <c r="T29" s="0">
+      <c r="T31" s="0">
         <v>2.1729702933249042</v>
       </c>
     </row>

--- a/Prácticas/Set_test1.xlsx
+++ b/Prácticas/Set_test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_rsesma_alumnos_upm_es/Documents/Escritorio/Git/Finite-Element-Method/Prácticas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_714DA5C74D60D67C77FBCF66FB012D16618B43EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCBFB46F-9171-4E54-BD0C-9E970ECB4E4C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{60E421DD-1853-4DDA-A687-BF7443EA57D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D851B5-31F9-4D79-83FF-1D0E4B6CAA0B}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="4320" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>Beam</t>
   </si>
@@ -115,9 +115,6 @@
     <t>E50001Tc</t>
   </si>
   <si>
-    <t>E40001Ta</t>
-  </si>
-  <si>
     <t>E99002ZZc</t>
   </si>
   <si>
@@ -197,6 +194,30 @@
   </si>
   <si>
     <t>E_RF mean</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO</t>
+  </si>
+  <si>
+    <t>Sigma E_AF</t>
+  </si>
+  <si>
+    <t>Sigma E_RF</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO rel</t>
+  </si>
+  <si>
+    <t>Sigma E_AF rel</t>
+  </si>
+  <si>
+    <t>Sigma E_RF rel</t>
+  </si>
+  <si>
+    <t>E40001Tb</t>
+  </si>
+  <si>
+    <t>E40001Tc</t>
   </si>
 </sst>
 </file>
@@ -233,12 +254,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -370,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -387,6 +414,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,18 +739,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="F33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L67:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
@@ -726,8 +758,15 @@
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="21" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" customWidth="1"/>
     <col min="22" max="22" width="14.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
     <col min="24" max="24" width="11.85546875" customWidth="1"/>
@@ -738,48 +777,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10">
@@ -844,7 +883,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="11">
@@ -909,7 +948,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="11">
@@ -974,7 +1013,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11">
@@ -1039,7 +1078,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11">
@@ -1104,7 +1143,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="11">
@@ -1169,7 +1208,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="11">
@@ -1234,7 +1273,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="11">
@@ -1299,7 +1338,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="11">
@@ -1364,7 +1403,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="11">
@@ -1429,7 +1468,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11">
@@ -1494,7 +1533,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="11">
@@ -1559,7 +1598,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11">
@@ -1624,7 +1663,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="11">
@@ -1689,7 +1728,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="11">
@@ -1754,7 +1793,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="11">
@@ -1819,7 +1858,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="11">
@@ -1884,7 +1923,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="11">
@@ -1949,7 +1988,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="11">
@@ -2014,7 +2053,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="11">
@@ -2079,7 +2118,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="11">
@@ -2144,7 +2183,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="11">
@@ -2209,7 +2248,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="11">
@@ -2274,7 +2313,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="11">
@@ -2339,7 +2378,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="11">
@@ -2404,7 +2443,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="11">
@@ -2469,8 +2508,8 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>27</v>
+      <c r="A28" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="B28" s="11">
         <v>1.2999999999999999E-2</v>
@@ -2534,8 +2573,8 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>28</v>
+      <c r="A29" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="11">
         <v>1.4999999999999999E-2</v>
@@ -2599,8 +2638,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>29</v>
+      <c r="A30" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="11">
         <v>1.6E-2</v>
@@ -2664,8 +2703,8 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>30</v>
+      <c r="A31" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="12">
         <v>1.4999999999999999E-2</v>
@@ -2730,7 +2769,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="14"/>
     </row>
@@ -2740,8 +2779,8 @@
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
+      <c r="A35" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B35">
         <f>(B2+B12+B22)/3</f>
@@ -2825,8 +2864,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
+      <c r="A36" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
         <f>(B3+B13+B23)/3</f>
@@ -2910,8 +2949,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>44</v>
+      <c r="A37" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37:U37" si="2">(B4+B14+B24)/3</f>
@@ -2995,8 +3034,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>45</v>
+      <c r="A38" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38:U38" si="3">(B5+B15+B25)/3</f>
@@ -3080,8 +3119,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
+      <c r="A39" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39:U39" si="4">(B6+B16+B26)/3</f>
@@ -3165,8 +3204,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>47</v>
+      <c r="A40" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:U40" si="5">(B7+B17+B27)/3</f>
@@ -3250,8 +3289,8 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>48</v>
+      <c r="A41" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B41">
         <f t="shared" ref="B41:U41" si="6">(B8+B18+B28)/3</f>
@@ -3335,8 +3374,8 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>49</v>
+      <c r="A42" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42:U42" si="7">(B9+B19+B29)/3</f>
@@ -3420,15 +3459,15 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>50</v>
+      <c r="A43" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B43">
         <f>(B10+B20+B30)/3</f>
         <v>1.5666666666666666E-2</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="B43:U43" si="8">(C10+C20+C30)/3</f>
+        <f t="shared" ref="C43:U43" si="8">(C10+C20+C30)/3</f>
         <v>0.16950000000000001</v>
       </c>
       <c r="D43">
@@ -3505,15 +3544,15 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>51</v>
+      <c r="A44" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B44">
         <f>(B11+B21+B31)/3</f>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="B44:U44" si="9">(C11+C21+C31)/3</f>
+        <f t="shared" ref="C44:U44" si="9">(C11+C21+C31)/3</f>
         <v>0.16933333333333334</v>
       </c>
       <c r="D44">
@@ -3591,18 +3630,40 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="M46" s="13" t="s">
         <v>54</v>
       </c>
+      <c r="N46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
+      <c r="A47" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B47">
         <f>(M35+N35+O35)/3</f>
@@ -3616,10 +3677,37 @@
         <f>(S35+T35+U35)/3</f>
         <v>2.1719188802744003</v>
       </c>
+      <c r="L47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f>_xlfn.STDEV.S(M2,N2,O2)</f>
+        <v>1.9783970816307138E-2</v>
+      </c>
+      <c r="N47">
+        <f>_xlfn.STDEV.S(P2,Q2,R2)</f>
+        <v>1.9648362068083829E-2</v>
+      </c>
+      <c r="O47">
+        <f>_xlfn.STDEV.S(S2,T2,U2)</f>
+        <v>0.36206041356135737</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47">
+        <v>0.10065941590769684</v>
+      </c>
+      <c r="R47">
+        <v>0.10431974263546673</v>
+      </c>
+      <c r="S47">
+        <v>0.27089019710339518</v>
+      </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
+      <c r="A48" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B48">
         <f t="shared" ref="B48:B56" si="10">(M36+N36+O36)/3</f>
@@ -3633,10 +3721,37 @@
         <f t="shared" ref="D48:D56" si="12">(S36+T36+U36)/3</f>
         <v>2.0081122863277057</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>44</v>
+      <c r="L48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M61" si="13">_xlfn.STDEV.S(M3,N3,O3)</f>
+        <v>7.6997427890630313E-2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N61" si="14">_xlfn.STDEV.S(P3,Q3,R3)</f>
+        <v>7.6078375545212254E-2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ref="O48:O61" si="15">_xlfn.STDEV.S(S3,T3,U3)</f>
+        <v>0.31581092984441517</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48">
+        <v>0.27763655189459435</v>
+      </c>
+      <c r="R48">
+        <v>0.28538261201841569</v>
+      </c>
+      <c r="S48">
+        <v>0.11475004789386571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B49">
         <f t="shared" si="10"/>
@@ -3650,10 +3765,37 @@
         <f t="shared" si="12"/>
         <v>2.3058154448251522</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
+      <c r="L49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="13"/>
+        <v>0.15529848829143936</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="14"/>
+        <v>0.15783196693457505</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>0.37316095606417587</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49">
+        <v>3.2106754936293676E-2</v>
+      </c>
+      <c r="R49">
+        <v>4.1784840657195142E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.31136826816518792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B50">
         <f t="shared" si="10"/>
@@ -3667,10 +3809,37 @@
         <f t="shared" si="12"/>
         <v>2.173325854521472</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>46</v>
+      <c r="L50" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="13"/>
+        <v>8.5565927250948651E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="14"/>
+        <v>9.075511955104984E-2</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>0.27470511241903406</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50">
+        <v>0.78734738100541901</v>
+      </c>
+      <c r="R50">
+        <v>0.78962628040311555</v>
+      </c>
+      <c r="S50">
+        <v>0.36635754474072718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B51">
         <f t="shared" si="10"/>
@@ -3684,10 +3853,37 @@
         <f t="shared" si="12"/>
         <v>2.0743629629161546</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>47</v>
+      <c r="L51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="13"/>
+        <v>8.255245895948142E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="14"/>
+        <v>8.9276125587283539E-2</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>0.32664413366917594</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51">
+        <v>0.110688476252349</v>
+      </c>
+      <c r="R51">
+        <v>0.11678327744108012</v>
+      </c>
+      <c r="S51">
+        <v>0.36825572739807366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B52">
         <f t="shared" si="10"/>
@@ -3701,10 +3897,37 @@
         <f t="shared" si="12"/>
         <v>2.0763431306942022</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>48</v>
+      <c r="L52" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="13"/>
+        <v>0.14630033407483736</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="14"/>
+        <v>0.15455453910525122</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>0.21778431824570643</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52">
+        <v>0.2786552027140457</v>
+      </c>
+      <c r="R52">
+        <v>0.27706004253685046</v>
+      </c>
+      <c r="S52">
+        <v>0.38334920065871597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B53">
         <f t="shared" si="10"/>
@@ -3718,10 +3941,37 @@
         <f t="shared" si="12"/>
         <v>1.8592211667905019</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>49</v>
+      <c r="L53" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="13"/>
+        <v>0.27763655189459435</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="14"/>
+        <v>0.28538261201841569</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>0.11475004789386571</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53">
+        <v>0.36215242868349212</v>
+      </c>
+      <c r="R53">
+        <v>0.37018449568685097</v>
+      </c>
+      <c r="S53">
+        <v>0.35103279031588058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="B54">
         <f t="shared" si="10"/>
@@ -3735,10 +3985,37 @@
         <f t="shared" si="12"/>
         <v>2.1696692623190228</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>50</v>
+      <c r="L54" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="13"/>
+        <v>0.91380751821587347</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="14"/>
+        <v>0.91784829717760086</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>0.30283516259131088</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q54">
+        <v>0.32123473304114092</v>
+      </c>
+      <c r="R54">
+        <v>0.31980899200302998</v>
+      </c>
+      <c r="S54">
+        <v>0.33390116284380122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B55">
         <f t="shared" si="10"/>
@@ -3753,10 +4030,37 @@
         <v>1.8103292561954543</v>
       </c>
       <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>51</v>
+      <c r="L55" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="13"/>
+        <v>0.14412389550663332</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="14"/>
+        <v>0.14934211744912734</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>0.2840162417890979</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55">
+        <v>0.12803682265259259</v>
+      </c>
+      <c r="R55">
+        <v>0.13685260086603471</v>
+      </c>
+      <c r="S55">
+        <v>0.34277552844328657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B56">
         <f t="shared" si="10"/>
@@ -3769,6 +4073,691 @@
       <c r="D56">
         <f t="shared" si="12"/>
         <v>1.5186199497861621</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="13"/>
+        <v>0.12632201629112558</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="14"/>
+        <v>0.13124733479877448</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="15"/>
+        <v>0.18416560376718691</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56">
+        <v>7.2639047530200188E-2</v>
+      </c>
+      <c r="R56">
+        <v>7.8799117242092209E-2</v>
+      </c>
+      <c r="S56">
+        <v>0.27775704124711081</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="13"/>
+        <v>0.14797415901209673</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="14"/>
+        <v>0.1527335950051058</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="15"/>
+        <v>0.35296105876519113</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57">
+        <v>0.14602593555560817</v>
+      </c>
+      <c r="R57">
+        <v>0.14721563413981784</v>
+      </c>
+      <c r="S57">
+        <v>0.34667401338966036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="13"/>
+        <v>3.5330282893138928E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="14"/>
+        <v>3.0147814383159204E-2</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="15"/>
+        <v>0.29635380246593512</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>0.27763655189459435</v>
+      </c>
+      <c r="R58">
+        <v>0.28538261201841569</v>
+      </c>
+      <c r="S58">
+        <v>0.11475004789386571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="13"/>
+        <v>0.26317922951199679</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="14"/>
+        <v>0.265005028275766</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="15"/>
+        <v>0.32181183572294447</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59">
+        <v>0.33910951116418508</v>
+      </c>
+      <c r="R59">
+        <v>0.34777167415217508</v>
+      </c>
+      <c r="S59">
+        <v>0.40979323273251311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="13"/>
+        <v>0.27203623855138614</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="14"/>
+        <v>0.28131067228187978</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="15"/>
+        <v>0.33271173730325504</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60">
+        <v>1.8484495128034469E-2</v>
+      </c>
+      <c r="R60">
+        <v>2.7292803039883833E-2</v>
+      </c>
+      <c r="S60">
+        <v>0.26361882845079837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L61" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="13"/>
+        <v>0.16088894507918364</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="14"/>
+        <v>0.16924083642964091</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="15"/>
+        <v>0.2995617758888609</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61">
+        <v>0.13789156948145143</v>
+      </c>
+      <c r="R61">
+        <v>0.14500517944284011</v>
+      </c>
+      <c r="S61">
+        <v>0.3204891177594108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L66" s="2"/>
+      <c r="M66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f>M47/B47*100</f>
+        <v>0.57775011869330217</v>
+      </c>
+      <c r="N67">
+        <f>N47/C47*100</f>
+        <v>0.57578231539247904</v>
+      </c>
+      <c r="O67">
+        <f>O47/D47*100</f>
+        <v>16.670070730984882</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67">
+        <f>Q47/B52*100</f>
+        <v>2.9661351477080684</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:S67" si="16">R47/C52*100</f>
+        <v>3.0845770088192692</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="16"/>
+        <v>13.046504361387806</v>
+      </c>
+    </row>
+    <row r="68" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L68" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:M76" si="17">M48/B48*100</f>
+        <v>2.4988222898468289</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ref="N68:O75" si="18">N48/C48*100</f>
+        <v>2.4774088795673719</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="18"/>
+        <v>15.72675651628764</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q71" si="19">Q48/B53*100</f>
+        <v>9.1139001290641897</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R71" si="20">R48/C53*100</f>
+        <v>9.399127178875295</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S71" si="21">S48/D53*100</f>
+        <v>6.1719417755959647</v>
+      </c>
+    </row>
+    <row r="69" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <f>M49/B49*100</f>
+        <v>4.3756761759249132</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="18"/>
+        <v>4.4624639421172914</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="18"/>
+        <v>16.183470229659786</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="19"/>
+        <v>0.93655277308027696</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="20"/>
+        <v>1.2228432970962135</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="21"/>
+        <v>14.350955400104898</v>
+      </c>
+    </row>
+    <row r="70" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L70" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="17"/>
+        <v>2.5308375058499681</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="18"/>
+        <v>2.6934346562343223</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="18"/>
+        <v>12.639849282035955</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="19"/>
+        <v>27.191125684963318</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="20"/>
+        <v>27.360138731459283</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="21"/>
+        <v>20.237067013470007</v>
+      </c>
+    </row>
+    <row r="71" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L71" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="17"/>
+        <v>2.5097085472305056</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="18"/>
+        <v>2.7234264567329194</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="18"/>
+        <v>15.746720294792443</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="19"/>
+        <v>4.3750809212946562</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="20"/>
+        <v>4.6316661391274128</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="21"/>
+        <v>24.249367160620274</v>
+      </c>
+    </row>
+    <row r="72" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L72" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="17"/>
+        <v>4.3110379601122455</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="18"/>
+        <v>4.5699439616009521</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="18"/>
+        <v>10.488840453499257</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72">
+        <f>Q52/B47*100</f>
+        <v>8.1375512498151235</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ref="R72:S72" si="22">R52/C47*100</f>
+        <v>8.119062150922792</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="22"/>
+        <v>17.650254074419376</v>
+      </c>
+    </row>
+    <row r="73" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L73" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="17"/>
+        <v>9.1139001290641897</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="18"/>
+        <v>9.399127178875295</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="18"/>
+        <v>6.1719417755959647</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ref="Q73:Q81" si="23">Q53/B48*100</f>
+        <v>11.753049236942063</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ref="R73:R81" si="24">R53/C48*100</f>
+        <v>12.054652194140974</v>
+      </c>
+      <c r="S73">
+        <f t="shared" ref="S73:S81" si="25">S53/D48*100</f>
+        <v>17.480735151410514</v>
+      </c>
+    </row>
+    <row r="74" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L74" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="17"/>
+        <v>26.655729205421743</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="18"/>
+        <v>26.861048655489693</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="18"/>
+        <v>13.957664785628637</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="23"/>
+        <v>9.051080816768021</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="24"/>
+        <v>9.0421232333116581</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="25"/>
+        <v>14.480827751985181</v>
+      </c>
+    </row>
+    <row r="75" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L75" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="17"/>
+        <v>4.9773340859063762</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="18"/>
+        <v>5.1746264698434778</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="18"/>
+        <v>15.688651156529382</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="23"/>
+        <v>3.7870260196993257</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="24"/>
+        <v>4.0615178492607384</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="25"/>
+        <v>15.771934417020944</v>
+      </c>
+    </row>
+    <row r="76" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L76" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="17"/>
+        <v>4.9930133842911921</v>
+      </c>
+      <c r="N76">
+        <f>N56/C56*100</f>
+        <v>5.2053157760099626</v>
+      </c>
+      <c r="O76">
+        <f>O56/D56*100</f>
+        <v>12.127168735872289</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="23"/>
+        <v>2.2083271745873088</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="24"/>
+        <v>2.4038184817339467</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="25"/>
+        <v>13.389992311501645</v>
+      </c>
+    </row>
+    <row r="77" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M77">
+        <f>M57/B47*100</f>
+        <v>4.3212805319300589</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77:O77" si="26">N57/C47*100</f>
+        <v>4.4757574532437001</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="26"/>
+        <v>16.251116096960217</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="23"/>
+        <v>4.3029522476627404</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="24"/>
+        <v>4.3529436416769549</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="25"/>
+        <v>16.696373940551616</v>
+      </c>
+    </row>
+    <row r="78" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ref="M78:M81" si="27">M58/B48*100</f>
+        <v>1.1465850330139769</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78:N81" si="28">N58/C48*100</f>
+        <v>0.98173051826009727</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O81" si="29">O58/D48*100</f>
+        <v>14.757830251010818</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="23"/>
+        <v>9.1139001290641897</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="24"/>
+        <v>9.399127178875295</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="25"/>
+        <v>6.1719417755959647</v>
+      </c>
+    </row>
+    <row r="79" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L79" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="27"/>
+        <v>7.4153141942554193</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="28"/>
+        <v>7.4926227311770344</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="29"/>
+        <v>13.956530495325358</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="23"/>
+        <v>9.8918110437783451</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="24"/>
+        <v>10.177620734415468</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="25"/>
+        <v>18.887359463004557</v>
+      </c>
+    </row>
+    <row r="80" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="27"/>
+        <v>8.0461877478054689</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="28"/>
+        <v>8.3487512069926648</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="29"/>
+        <v>15.308874949012758</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="23"/>
+        <v>0.63836400853668185</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="24"/>
+        <v>0.94568138887220976</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="25"/>
+        <v>14.561927204602194</v>
+      </c>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L81" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="27"/>
+        <v>4.8912457086022467</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="28"/>
+        <v>5.1628021317016595</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="29"/>
+        <v>14.441145606829325</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="23"/>
+        <v>5.4503124017200655</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="24"/>
+        <v>5.7509567665828065</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="25"/>
+        <v>21.103971260521046</v>
       </c>
     </row>
   </sheetData>
